--- a/menu.xlsx
+++ b/menu.xlsx
@@ -44,7 +44,7 @@
     <t>Whipped Salted Butter packet, 1 ea</t>
   </si>
   <si>
-    <t>18853 GL Chicken Noodle Soup, ACC</t>
+    <t>Chicken Noodle Soup, ACC</t>
   </si>
   <si>
     <t>Chix Noodle Soup, 6 oz</t>
